--- a/advw/egret/resource/battle/static_data/base.xlsx
+++ b/advw/egret/resource/battle/static_data/base.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18990" windowHeight="10545" tabRatio="777" activeTab="2"/>
+    <workbookView windowWidth="18990" windowHeight="10545" tabRatio="777" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="engineCost" sheetId="1" r:id="rId1"/>
@@ -2242,8 +2242,8 @@
   <sheetPr/>
   <dimension ref="A1:Y25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -9237,8 +9237,8 @@
   <sheetPr/>
   <dimension ref="A1:AF25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
